--- a/FedExApplicationMaven/src/main/resources/TestFiles/CheetahProcessing_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CheetahProcessing_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="230">
   <si>
     <t>Sno</t>
   </si>
@@ -605,6 +605,105 @@
   </si>
   <si>
     <t>320017963461</t>
+  </si>
+  <si>
+    <t>320017963472</t>
+  </si>
+  <si>
+    <t>320017963483</t>
+  </si>
+  <si>
+    <t>320017963510</t>
+  </si>
+  <si>
+    <t>320017963531</t>
+  </si>
+  <si>
+    <t>320017963575</t>
+  </si>
+  <si>
+    <t>320017963597</t>
+  </si>
+  <si>
+    <t>320017963623</t>
+  </si>
+  <si>
+    <t>320017963645</t>
+  </si>
+  <si>
+    <t>320017963678</t>
+  </si>
+  <si>
+    <t>320017963690</t>
+  </si>
+  <si>
+    <t>320017963737</t>
+  </si>
+  <si>
+    <t>320017963759</t>
+  </si>
+  <si>
+    <t>320017963792</t>
+  </si>
+  <si>
+    <t>320017963807</t>
+  </si>
+  <si>
+    <t>320017963830</t>
+  </si>
+  <si>
+    <t>320017963851</t>
+  </si>
+  <si>
+    <t>320017963895</t>
+  </si>
+  <si>
+    <t>320017963910</t>
+  </si>
+  <si>
+    <t>320017963943</t>
+  </si>
+  <si>
+    <t>320017963965</t>
+  </si>
+  <si>
+    <t>320017963998</t>
+  </si>
+  <si>
+    <t>320017964012</t>
+  </si>
+  <si>
+    <t>320017964056</t>
+  </si>
+  <si>
+    <t>320017964078</t>
+  </si>
+  <si>
+    <t>320017964104</t>
+  </si>
+  <si>
+    <t>320017964126</t>
+  </si>
+  <si>
+    <t>320017964159</t>
+  </si>
+  <si>
+    <t>320017964170</t>
+  </si>
+  <si>
+    <t>320017964218</t>
+  </si>
+  <si>
+    <t>320017964230</t>
+  </si>
+  <si>
+    <t>320017964284</t>
+  </si>
+  <si>
+    <t>320017964300</t>
+  </si>
+  <si>
+    <t>320017964332</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="2"/>
@@ -1231,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="2"/>
@@ -1273,7 +1372,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="2"/>
@@ -1325,10 +1424,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1379,10 +1478,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -1437,10 +1536,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -1501,7 +1600,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
@@ -1557,7 +1656,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="2"/>
@@ -1597,7 +1696,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="2"/>
@@ -1637,7 +1736,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="2"/>
@@ -1677,7 +1776,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="2"/>
@@ -1719,10 +1818,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -1773,10 +1872,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -1827,10 +1926,10 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
@@ -1881,10 +1980,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
@@ -1935,10 +2034,10 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
@@ -1989,7 +2088,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="2"/>
@@ -2031,7 +2130,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="2"/>
@@ -2083,7 +2182,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="2"/>
@@ -2135,7 +2234,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="2"/>
@@ -2189,7 +2288,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="2"/>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CheetahProcessing_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CheetahProcessing_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="251">
   <si>
     <t>Sno</t>
   </si>
@@ -704,6 +704,69 @@
   </si>
   <si>
     <t>320017964332</t>
+  </si>
+  <si>
+    <t>320017964582</t>
+  </si>
+  <si>
+    <t>320017964593</t>
+  </si>
+  <si>
+    <t>320017964620</t>
+  </si>
+  <si>
+    <t>320017964641</t>
+  </si>
+  <si>
+    <t>320017964685</t>
+  </si>
+  <si>
+    <t>320017964700</t>
+  </si>
+  <si>
+    <t>320017964733</t>
+  </si>
+  <si>
+    <t>320017964755</t>
+  </si>
+  <si>
+    <t>320017964788</t>
+  </si>
+  <si>
+    <t>320017964803</t>
+  </si>
+  <si>
+    <t>320017964847</t>
+  </si>
+  <si>
+    <t>320017964869</t>
+  </si>
+  <si>
+    <t>320017964891</t>
+  </si>
+  <si>
+    <t>320017964917</t>
+  </si>
+  <si>
+    <t>320017964940</t>
+  </si>
+  <si>
+    <t>320017964961</t>
+  </si>
+  <si>
+    <t>320017965008</t>
+  </si>
+  <si>
+    <t>320017965020</t>
+  </si>
+  <si>
+    <t>320017965052</t>
+  </si>
+  <si>
+    <t>320017965074</t>
+  </si>
+  <si>
+    <t>320017965100</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="2"/>
@@ -1330,7 +1393,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="2"/>
@@ -1372,7 +1435,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="2"/>
@@ -1388,13 +1451,13 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P4" t="s">
         <v>55</v>
@@ -1424,10 +1487,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1442,13 +1505,13 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
         <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P5" t="s">
         <v>55</v>
@@ -1478,10 +1541,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -1500,13 +1563,13 @@
         <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
         <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P6" t="s">
         <v>55</v>
@@ -1514,7 +1577,7 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
         <v>55</v>
@@ -1536,10 +1599,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -1556,13 +1619,13 @@
         <v>55</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
         <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s">
         <v>55</v>
@@ -1600,7 +1663,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
@@ -1656,7 +1719,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="2"/>
@@ -1696,7 +1759,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="2"/>
@@ -1736,7 +1799,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="2"/>
@@ -1776,7 +1839,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="2"/>
@@ -1818,10 +1881,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -1838,13 +1901,13 @@
         <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N13" t="s">
         <v>55</v>
       </c>
       <c r="O13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P13" t="s">
         <v>55</v>
@@ -1854,7 +1917,7 @@
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
@@ -1872,10 +1935,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -1892,13 +1955,13 @@
         <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N14" t="s">
         <v>55</v>
       </c>
       <c r="O14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P14" t="s">
         <v>55</v>
@@ -1909,7 +1972,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -1926,10 +1989,10 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
@@ -1946,13 +2009,13 @@
         <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N15" t="s">
         <v>55</v>
       </c>
       <c r="O15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P15" t="s">
         <v>55</v>
@@ -1964,7 +2027,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
@@ -1980,10 +2043,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
@@ -2000,13 +2063,13 @@
         <v>55</v>
       </c>
       <c r="M16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N16" t="s">
         <v>55</v>
       </c>
       <c r="O16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P16" t="s">
         <v>55</v>
@@ -2019,7 +2082,7 @@
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
@@ -2034,10 +2097,10 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
@@ -2054,13 +2117,13 @@
         <v>55</v>
       </c>
       <c r="M17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N17" t="s">
         <v>55</v>
       </c>
       <c r="O17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P17" t="s">
         <v>55</v>
@@ -2074,7 +2137,7 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
@@ -2088,7 +2151,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="2"/>
@@ -2130,7 +2193,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="2"/>
@@ -2148,13 +2211,13 @@
         <v>55</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N19" t="s">
         <v>55</v>
       </c>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P19" t="s">
         <v>55</v>
@@ -2182,7 +2245,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="2"/>
@@ -2200,13 +2263,13 @@
         <v>55</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N20" t="s">
         <v>55</v>
       </c>
       <c r="O20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P20" t="s">
         <v>55</v>
@@ -2234,7 +2297,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="2"/>
@@ -2252,13 +2315,13 @@
         <v>55</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N21" t="s">
         <v>55</v>
       </c>
       <c r="O21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P21" t="s">
         <v>55</v>
@@ -2288,7 +2351,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="2"/>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CheetahProcessing_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CheetahProcessing_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="275">
   <si>
     <t>Sno</t>
   </si>
@@ -767,6 +767,78 @@
   </si>
   <si>
     <t>320017965100</t>
+  </si>
+  <si>
+    <t>320017965155</t>
+  </si>
+  <si>
+    <t>320017965166</t>
+  </si>
+  <si>
+    <t>320017965199</t>
+  </si>
+  <si>
+    <t>320017965214</t>
+  </si>
+  <si>
+    <t>320017965225</t>
+  </si>
+  <si>
+    <t>320017965258</t>
+  </si>
+  <si>
+    <t>320017965270</t>
+  </si>
+  <si>
+    <t>320017965317</t>
+  </si>
+  <si>
+    <t>320017965339</t>
+  </si>
+  <si>
+    <t>320017965361</t>
+  </si>
+  <si>
+    <t>320017965383</t>
+  </si>
+  <si>
+    <t>320017965410</t>
+  </si>
+  <si>
+    <t>320017965431</t>
+  </si>
+  <si>
+    <t>320017965475</t>
+  </si>
+  <si>
+    <t>320017965497</t>
+  </si>
+  <si>
+    <t>320017965523</t>
+  </si>
+  <si>
+    <t>320017965545</t>
+  </si>
+  <si>
+    <t>320017965578</t>
+  </si>
+  <si>
+    <t>320017965590</t>
+  </si>
+  <si>
+    <t>320017965637</t>
+  </si>
+  <si>
+    <t>320017965659</t>
+  </si>
+  <si>
+    <t>320017965681</t>
+  </si>
+  <si>
+    <t>320017965707</t>
+  </si>
+  <si>
+    <t>320017965730</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="2"/>
@@ -1393,7 +1465,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="2"/>
@@ -1435,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="2"/>
@@ -1454,17 +1526,17 @@
         <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
         <v>57</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
@@ -1487,10 +1559,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1505,13 +1577,13 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
         <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P5" t="s">
         <v>55</v>
@@ -1541,10 +1613,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -1563,13 +1635,13 @@
         <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N6" t="s">
         <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
         <v>55</v>
@@ -1599,10 +1671,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -1619,13 +1691,13 @@
         <v>55</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s">
         <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" t="s">
         <v>55</v>
@@ -1663,7 +1735,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
@@ -1719,7 +1791,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="2"/>
@@ -1759,7 +1831,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="2"/>
@@ -1799,7 +1871,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="2"/>
@@ -1839,7 +1911,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="2"/>
@@ -1881,10 +1953,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -1898,19 +1970,19 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
         <v>57</v>
       </c>
       <c r="N13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O13" t="s">
         <v>57</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -1935,10 +2007,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -1952,19 +2024,19 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M14" t="s">
         <v>57</v>
       </c>
       <c r="N14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O14" t="s">
         <v>57</v>
       </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -1989,10 +2061,10 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
@@ -2009,13 +2081,13 @@
         <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N15" t="s">
         <v>55</v>
       </c>
       <c r="O15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P15" t="s">
         <v>55</v>
@@ -2027,7 +2099,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
@@ -2043,10 +2115,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
@@ -2060,19 +2132,19 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M16" t="s">
         <v>57</v>
       </c>
       <c r="N16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O16" t="s">
         <v>57</v>
       </c>
       <c r="P16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -2097,10 +2169,10 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
@@ -2114,19 +2186,19 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M17" t="s">
         <v>57</v>
       </c>
       <c r="N17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O17" t="s">
         <v>57</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -2151,7 +2223,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="2"/>
@@ -2193,7 +2265,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="2"/>
@@ -2211,13 +2283,13 @@
         <v>55</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N19" t="s">
         <v>55</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P19" t="s">
         <v>55</v>
@@ -2245,7 +2317,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="2"/>
@@ -2263,13 +2335,13 @@
         <v>55</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N20" t="s">
         <v>55</v>
       </c>
       <c r="O20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P20" t="s">
         <v>55</v>
@@ -2297,7 +2369,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="2"/>
@@ -2315,13 +2387,13 @@
         <v>55</v>
       </c>
       <c r="M21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N21" t="s">
         <v>55</v>
       </c>
       <c r="O21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P21" t="s">
         <v>55</v>
@@ -2351,7 +2423,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="2"/>
